--- a/Phenoloxidase Activity data/134. SEG 34 (91266).xlsx
+++ b/Phenoloxidase Activity data/134. SEG 34 (91266).xlsx
@@ -13,9 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="52" r:id="rId1"/>
-    <sheet name="1" sheetId="84" r:id="rId2"/>
+    <sheet name="1" sheetId="85" r:id="rId2"/>
     <sheet name="Phenol oxidase activity" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Sample - Blank</t>
   </si>
@@ -61,44 +64,47 @@
     <t>Rep</t>
   </si>
   <si>
-    <t>Sample 91153</t>
+    <t>B1</t>
   </si>
   <si>
-    <t>SEG - 33</t>
+    <t>B2</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>B3</t>
   </si>
   <si>
-    <t>F2</t>
+    <t>B4</t>
   </si>
   <si>
-    <t>F3</t>
+    <t>B5</t>
   </si>
   <si>
-    <t>F4</t>
+    <t>B6</t>
   </si>
   <si>
-    <t>F5</t>
+    <t>F10</t>
   </si>
   <si>
-    <t>F6</t>
+    <t>F11</t>
   </si>
   <si>
-    <t>H10</t>
+    <t>F12</t>
   </si>
   <si>
-    <t>H11</t>
+    <t>SEG - 34</t>
   </si>
   <si>
-    <t>H12</t>
+    <t>Sample 91161</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +123,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,10 +172,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,8 +286,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1397655293088364"/>
-                  <c:y val="-0.44829505686789151"/>
+                  <c:x val="-0.27489435695538056"/>
+                  <c:y val="-8.9191819772528436E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -369,37 +369,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.43610000610351563</c:v>
+                  <c:v>0.52410000562667847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43309998512268066</c:v>
+                  <c:v>0.52700001001358032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4260999858379364</c:v>
+                  <c:v>0.52670001983642578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41639998555183411</c:v>
+                  <c:v>0.52579998970031738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40900000929832458</c:v>
+                  <c:v>0.52530002593994141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41100001335144043</c:v>
+                  <c:v>0.52569997310638428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40729999542236328</c:v>
+                  <c:v>0.52560001611709595</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40529999136924744</c:v>
+                  <c:v>0.52679997682571411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40459999442100525</c:v>
+                  <c:v>0.52679997682571411</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40380001068115234</c:v>
+                  <c:v>0.52609997987747192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40239998698234558</c:v>
+                  <c:v>0.52560001611709595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,11 +414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136543224"/>
-        <c:axId val="245569400"/>
+        <c:axId val="35263320"/>
+        <c:axId val="35263712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136543224"/>
+        <c:axId val="35263320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,12 +475,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245569400"/>
+        <c:crossAx val="35263712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245569400"/>
+        <c:axId val="35263712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136543224"/>
+        <c:crossAx val="35263320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -678,8 +678,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14254330708661411"/>
-                  <c:y val="-0.28162839020122482"/>
+                  <c:x val="-0.40641819772528431"/>
+                  <c:y val="-1.4792942548848061E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -761,37 +761,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.46369999647140503</c:v>
+                  <c:v>0.51929998397827148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45860001444816589</c:v>
+                  <c:v>0.51639997959136963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45089998841285706</c:v>
+                  <c:v>0.51590001583099365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44490000605583191</c:v>
+                  <c:v>0.51349997520446777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44539999961853027</c:v>
+                  <c:v>0.51499998569488525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44769999384880066</c:v>
+                  <c:v>0.51719999313354492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44359999895095825</c:v>
+                  <c:v>0.51829999685287476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44190001487731934</c:v>
+                  <c:v>0.51899999380111694</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44119998812675476</c:v>
+                  <c:v>0.51789999008178711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43999999761581421</c:v>
+                  <c:v>0.51810002326965332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44010001420974731</c:v>
+                  <c:v>0.5187000036239624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,11 +806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245375560"/>
-        <c:axId val="245375944"/>
+        <c:axId val="289545680"/>
+        <c:axId val="289546464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245375560"/>
+        <c:axId val="289545680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,12 +867,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245375944"/>
+        <c:crossAx val="289546464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245375944"/>
+        <c:axId val="289546464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245375560"/>
+        <c:crossAx val="289545680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1153,37 +1153,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.43700000643730164</c:v>
+                  <c:v>0.49610000848770142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43630000948905945</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42410001158714294</c:v>
+                  <c:v>0.49729999899864197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42129999399185181</c:v>
+                  <c:v>0.49149999022483826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42129999399185181</c:v>
+                  <c:v>0.4885999858379364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42269998788833618</c:v>
+                  <c:v>0.48579999804496765</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42059999704360962</c:v>
+                  <c:v>0.48559999465942383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41920000314712524</c:v>
+                  <c:v>0.48769998550415039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41780000925064087</c:v>
+                  <c:v>0.4885999858379364</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41710001230239868</c:v>
+                  <c:v>0.48769998550415039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41609999537467957</c:v>
+                  <c:v>0.48910000920295715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,11 +1198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245418632"/>
-        <c:axId val="245419016"/>
+        <c:axId val="289544112"/>
+        <c:axId val="289544504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245418632"/>
+        <c:axId val="289544112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,12 +1259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245419016"/>
+        <c:crossAx val="289544504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245419016"/>
+        <c:axId val="289544504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245418632"/>
+        <c:crossAx val="289544112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1462,8 +1462,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.42527143482064744"/>
-                  <c:y val="0.2012325021872266"/>
+                  <c:x val="-0.40860476815398078"/>
+                  <c:y val="0.22643518518518518"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1545,37 +1545,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.5593000054359436</c:v>
+                  <c:v>1.1599987745285034E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56749999523162842</c:v>
+                  <c:v>3.4299999475479126E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57609999179840088</c:v>
+                  <c:v>6.529998779296875E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58380001783370972</c:v>
+                  <c:v>0.10234999656677246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59049999713897705</c:v>
+                  <c:v>0.1310499906539917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59299999475479126</c:v>
+                  <c:v>0.14794999361038208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5964999794960022</c:v>
+                  <c:v>0.16815000772476196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60110002756118774</c:v>
+                  <c:v>0.18880003690719604</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60670000314712524</c:v>
+                  <c:v>0.19664999842643738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61710000038146973</c:v>
+                  <c:v>0.20570001006126404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62470000982284546</c:v>
+                  <c:v>0.21825000643730164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,11 +1590,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244993120"/>
-        <c:axId val="244993504"/>
+        <c:axId val="233905168"/>
+        <c:axId val="233910656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244993120"/>
+        <c:axId val="233905168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,12 +1651,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244993504"/>
+        <c:crossAx val="233910656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244993504"/>
+        <c:axId val="233910656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244993120"/>
+        <c:crossAx val="233905168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1854,8 +1854,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40860476815398078"/>
-                  <c:y val="0.17087962962962963"/>
+                  <c:x val="-0.36816032370953633"/>
+                  <c:y val="0.12025189559638379"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1937,37 +1937,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.5339999794960022</c:v>
+                  <c:v>0.10270002484321594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55000001192092896</c:v>
+                  <c:v>0.14110001921653748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55860000848770142</c:v>
+                  <c:v>0.14519995450973511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56760001182556152</c:v>
+                  <c:v>0.15735000371932983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57359999418258667</c:v>
+                  <c:v>0.16864997148513794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.580299973487854</c:v>
+                  <c:v>0.17805004119873047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58719998598098755</c:v>
+                  <c:v>0.18615001440048218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59789997339248657</c:v>
+                  <c:v>0.1906999945640564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60600000619888306</c:v>
+                  <c:v>0.19185003638267517</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61400002241134644</c:v>
+                  <c:v>0.19539996981620789</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62080001831054688</c:v>
+                  <c:v>0.20984998345375061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,11 +1982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245000264"/>
-        <c:axId val="245000648"/>
+        <c:axId val="233909480"/>
+        <c:axId val="233906344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245000264"/>
+        <c:axId val="233909480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,12 +2043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245000648"/>
+        <c:crossAx val="233906344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245000648"/>
+        <c:axId val="233906344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245000264"/>
+        <c:crossAx val="233909480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2246,8 +2246,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.44871587926509188"/>
-                  <c:y val="0.23767862350539515"/>
+                  <c:x val="-0.31783092738407698"/>
+                  <c:y val="1.8101851851851852E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2328,38 +2328,38 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.49430000782012939</c:v>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.15809997916221619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51249998807907104</c:v>
+                  <c:v>0.1792999804019928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5242999792098999</c:v>
+                  <c:v>0.18709999322891235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53350001573562622</c:v>
+                  <c:v>0.19405001401901245</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54030001163482666</c:v>
+                  <c:v>0.20604997873306274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54610002040863037</c:v>
+                  <c:v>0.21715003252029419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55159997940063477</c:v>
+                  <c:v>0.22845000028610229</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55699998140335083</c:v>
+                  <c:v>0.24020004272460938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56879997253417969</c:v>
+                  <c:v>0.24525001645088196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57539999485015869</c:v>
+                  <c:v>0.25430002808570862</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5810999870300293</c:v>
+                  <c:v>0.27204999327659607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,11 +2374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245064672"/>
-        <c:axId val="245065456"/>
+        <c:axId val="233907912"/>
+        <c:axId val="233908304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245064672"/>
+        <c:axId val="233907912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2435,12 +2435,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245065456"/>
+        <c:crossAx val="233908304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245065456"/>
+        <c:axId val="233908304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2460,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2497,7 +2497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245064672"/>
+        <c:crossAx val="233907912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2638,8 +2638,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36602143482064742"/>
-                  <c:y val="0.20328703703703704"/>
+                  <c:x val="-0.32371587926509188"/>
+                  <c:y val="8.7546296296296303E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2721,37 +2721,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.55250000953674316</c:v>
+                  <c:v>0.20309999585151672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5680999755859375</c:v>
+                  <c:v>0.23240002989768982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57450002431869507</c:v>
+                  <c:v>0.25749999284744263</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58160001039505005</c:v>
+                  <c:v>0.27584999799728394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59039998054504395</c:v>
+                  <c:v>0.29844999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59710001945495605</c:v>
+                  <c:v>0.31915003061294556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61040002107620239</c:v>
+                  <c:v>0.34095001220703125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61900001764297485</c:v>
+                  <c:v>0.36320000886917114</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62809997797012329</c:v>
+                  <c:v>0.38075003027915955</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63639998435974121</c:v>
+                  <c:v>0.39930000901222229</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64259999990463257</c:v>
+                  <c:v>0.42674997448921204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2766,11 +2766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245067024"/>
-        <c:axId val="245066240"/>
+        <c:axId val="370975032"/>
+        <c:axId val="370976208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245067024"/>
+        <c:axId val="370975032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,12 +2827,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245066240"/>
+        <c:crossAx val="370976208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245066240"/>
+        <c:axId val="370976208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,7 +2889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245067024"/>
+        <c:crossAx val="370975032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3030,8 +3030,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.33204921259842518"/>
-                  <c:y val="0.12655584718576846"/>
+                  <c:x val="-0.14871587926509186"/>
+                  <c:y val="-4.1666666666666669E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3113,37 +3113,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.51889997720718384</c:v>
+                  <c:v>-1.6100019216537476E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53310000896453857</c:v>
+                  <c:v>-7.9998373985290527E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54589998722076416</c:v>
+                  <c:v>1.0800004005432129E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55809998512268066</c:v>
+                  <c:v>1.9550025463104248E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56709998846054077</c:v>
+                  <c:v>3.1750023365020752E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57639998197555542</c:v>
+                  <c:v>4.2650043964385986E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59280002117156982</c:v>
+                  <c:v>5.2649974822998047E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60430002212524414</c:v>
+                  <c:v>6.240004301071167E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61470001935958862</c:v>
+                  <c:v>7.365003228187561E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62529999017715454</c:v>
+                  <c:v>7.9899996519088745E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63550001382827759</c:v>
+                  <c:v>9.5549970865249634E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,11 +3158,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245067808"/>
-        <c:axId val="245065064"/>
+        <c:axId val="370976600"/>
+        <c:axId val="370978168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245067808"/>
+        <c:axId val="370976600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,12 +3219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245065064"/>
+        <c:crossAx val="370978168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245065064"/>
+        <c:axId val="370978168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245067808"/>
+        <c:crossAx val="370976600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3422,8 +3422,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.34535476815398075"/>
-                  <c:y val="0.21254629629629629"/>
+                  <c:x val="-0.38204921259842517"/>
+                  <c:y val="2.8190069991251093E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3505,37 +3505,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.53850001096725464</c:v>
+                  <c:v>-1.8500000238418579E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54659998416900635</c:v>
+                  <c:v>-9.9986791610717773E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55210000276565552</c:v>
+                  <c:v>5.1000118255615234E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55699998140335083</c:v>
+                  <c:v>1.2250006198883057E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56279999017715454</c:v>
+                  <c:v>2.7750015258789063E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56669998168945313</c:v>
+                  <c:v>4.0150046348571777E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57400000095367432</c:v>
+                  <c:v>5.3349971771240234E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58270001411437988</c:v>
+                  <c:v>6.5100014209747314E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58890002965927124</c:v>
+                  <c:v>7.4750036001205444E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59640002250671387</c:v>
+                  <c:v>8.0199986696243286E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60409998893737793</c:v>
+                  <c:v>9.2449992895126343E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,11 +3550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="286925928"/>
-        <c:axId val="286926712"/>
+        <c:axId val="370975424"/>
+        <c:axId val="370975816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="286925928"/>
+        <c:axId val="370975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,12 +3611,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286926712"/>
+        <c:crossAx val="370975816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286926712"/>
+        <c:axId val="370975816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3673,7 +3673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286925928"/>
+        <c:crossAx val="370975424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8733,13 +8733,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9024,6 +9024,558 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Blank "/>
+      <sheetName val="0"/>
+      <sheetName val="1"/>
+      <sheetName val="2"/>
+      <sheetName val="3"/>
+      <sheetName val="Phenol oxidase activity"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="4">
+          <cell r="N4">
+            <v>0</v>
+          </cell>
+          <cell r="O4">
+            <v>-8.3400070667266846E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>3</v>
+          </cell>
+          <cell r="O5">
+            <v>-4.6850025653839111E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>6</v>
+          </cell>
+          <cell r="O6">
+            <v>-2.3549944162368774E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>9</v>
+          </cell>
+          <cell r="O7">
+            <v>-6.9000124931335449E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>12</v>
+          </cell>
+          <cell r="O8">
+            <v>1.2399941682815552E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>15</v>
+          </cell>
+          <cell r="O9">
+            <v>3.4000039100646973E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>18</v>
+          </cell>
+          <cell r="O10">
+            <v>6.0899972915649414E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>21</v>
+          </cell>
+          <cell r="O11">
+            <v>8.6900055408477783E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>24</v>
+          </cell>
+          <cell r="O12">
+            <v>0.11329996585845947</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>27</v>
+          </cell>
+          <cell r="O13">
+            <v>0.14050000905990601</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>30</v>
+          </cell>
+          <cell r="O14">
+            <v>0.16624993085861206</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="O19">
+            <v>-6.099998950958252E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="N20">
+            <v>3</v>
+          </cell>
+          <cell r="O20">
+            <v>3.9850056171417236E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="N21">
+            <v>6</v>
+          </cell>
+          <cell r="O21">
+            <v>6.8850010633468628E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="N22">
+            <v>9</v>
+          </cell>
+          <cell r="O22">
+            <v>8.2300007343292236E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>12</v>
+          </cell>
+          <cell r="O23">
+            <v>0.10879996418952942</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>15</v>
+          </cell>
+          <cell r="O24">
+            <v>0.12940001487731934</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="N25">
+            <v>18</v>
+          </cell>
+          <cell r="O25">
+            <v>0.15429997444152832</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="N26">
+            <v>21</v>
+          </cell>
+          <cell r="O26">
+            <v>0.17930001020431519</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>24</v>
+          </cell>
+          <cell r="O27">
+            <v>0.20340001583099365</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="N28">
+            <v>27</v>
+          </cell>
+          <cell r="O28">
+            <v>0.2271999716758728</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="N29">
+            <v>30</v>
+          </cell>
+          <cell r="O29">
+            <v>0.24935001134872437</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>9.9956989288330078E-5</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="N36">
+            <v>3</v>
+          </cell>
+          <cell r="O36">
+            <v>4.2949974536895752E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="N37">
+            <v>6</v>
+          </cell>
+          <cell r="O37">
+            <v>6.8850010633468628E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="N38">
+            <v>9</v>
+          </cell>
+          <cell r="O38">
+            <v>8.4000051021575928E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="N39">
+            <v>12</v>
+          </cell>
+          <cell r="O39">
+            <v>0.10859993100166321</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="N40">
+            <v>15</v>
+          </cell>
+          <cell r="O40">
+            <v>0.13069999217987061</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="N41">
+            <v>18</v>
+          </cell>
+          <cell r="O41">
+            <v>0.15620005130767822</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="N42">
+            <v>21</v>
+          </cell>
+          <cell r="O42">
+            <v>0.18049997091293335</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="N43">
+            <v>24</v>
+          </cell>
+          <cell r="O43">
+            <v>0.20340001583099365</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="N44">
+            <v>27</v>
+          </cell>
+          <cell r="O44">
+            <v>0.22530001401901245</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="N45">
+            <v>30</v>
+          </cell>
+          <cell r="O45">
+            <v>0.24665004014968872</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="N51">
+            <v>0</v>
+          </cell>
+          <cell r="O51">
+            <v>1.4699995517730713E-2</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="N52">
+            <v>3</v>
+          </cell>
+          <cell r="O52">
+            <v>6.3950002193450928E-2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="N53">
+            <v>6</v>
+          </cell>
+          <cell r="O53">
+            <v>9.6550077199935913E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="N54">
+            <v>9</v>
+          </cell>
+          <cell r="O54">
+            <v>0.11270004510879517</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="N55">
+            <v>12</v>
+          </cell>
+          <cell r="O55">
+            <v>0.13099995255470276</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="N56">
+            <v>15</v>
+          </cell>
+          <cell r="O56">
+            <v>0.15719997882843018</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="N57">
+            <v>18</v>
+          </cell>
+          <cell r="O57">
+            <v>0.18219995498657227</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="N58">
+            <v>21</v>
+          </cell>
+          <cell r="O58">
+            <v>0.20910006761550903</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="N59">
+            <v>24</v>
+          </cell>
+          <cell r="O59">
+            <v>0.23160004615783691</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="N60">
+            <v>27</v>
+          </cell>
+          <cell r="O60">
+            <v>0.25609999895095825</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="N61">
+            <v>30</v>
+          </cell>
+          <cell r="O61">
+            <v>0.27605003118515015</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="N68">
+            <v>0</v>
+          </cell>
+          <cell r="O68">
+            <v>-8.3800017833709717E-2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="N69">
+            <v>3</v>
+          </cell>
+          <cell r="O69">
+            <v>-3.7149965763092041E-2</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="N70">
+            <v>6</v>
+          </cell>
+          <cell r="O70">
+            <v>-1.264992356300354E-2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="N71">
+            <v>9</v>
+          </cell>
+          <cell r="O71">
+            <v>-6.499946117401123E-3</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="N72">
+            <v>12</v>
+          </cell>
+          <cell r="O72">
+            <v>1.5399962663650513E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="N73">
+            <v>15</v>
+          </cell>
+          <cell r="O73">
+            <v>4.1399955749511719E-2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="N74">
+            <v>18</v>
+          </cell>
+          <cell r="O74">
+            <v>7.3300004005432129E-2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="N75">
+            <v>21</v>
+          </cell>
+          <cell r="O75">
+            <v>9.8900020122528076E-2</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="N76">
+            <v>24</v>
+          </cell>
+          <cell r="O76">
+            <v>0.12800002098083496</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="N77">
+            <v>27</v>
+          </cell>
+          <cell r="O77">
+            <v>0.15549999475479126</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="N78">
+            <v>30</v>
+          </cell>
+          <cell r="O78">
+            <v>0.18244999647140503</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="N85">
+            <v>0</v>
+          </cell>
+          <cell r="O85">
+            <v>8.899986743927002E-3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="N86">
+            <v>3</v>
+          </cell>
+          <cell r="O86">
+            <v>4.794996976852417E-2</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="N87">
+            <v>6</v>
+          </cell>
+          <cell r="O87">
+            <v>8.6850017309188843E-2</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="N88">
+            <v>9</v>
+          </cell>
+          <cell r="O88">
+            <v>0.11260002851486206</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="N89">
+            <v>12</v>
+          </cell>
+          <cell r="O89">
+            <v>0.11379995942115784</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="N90">
+            <v>15</v>
+          </cell>
+          <cell r="O90">
+            <v>0.10710000991821289</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="N91">
+            <v>18</v>
+          </cell>
+          <cell r="O91">
+            <v>0.11259996891021729</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="N92">
+            <v>21</v>
+          </cell>
+          <cell r="O92">
+            <v>0.14399999380111694</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="N93">
+            <v>24</v>
+          </cell>
+          <cell r="O93">
+            <v>0.18250000476837158</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="N94">
+            <v>27</v>
+          </cell>
+          <cell r="O94">
+            <v>0.21649998426437378</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="N95">
+            <v>30</v>
+          </cell>
+          <cell r="O95">
+            <v>0.24774998426437378</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9291,7 +9843,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9301,116 +9853,116 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1">
-        <v>0.43610000610351563</v>
+        <v>0.52410000562667847</v>
       </c>
       <c r="C1" s="1">
-        <v>0.43309998512268066</v>
+        <v>0.52700001001358032</v>
       </c>
       <c r="D1" s="1">
-        <v>0.4260999858379364</v>
+        <v>0.52670001983642578</v>
       </c>
       <c r="E1" s="1">
-        <v>0.41639998555183411</v>
+        <v>0.52579998970031738</v>
       </c>
       <c r="F1" s="1">
-        <v>0.40900000929832458</v>
+        <v>0.52530002593994141</v>
       </c>
       <c r="G1" s="1">
-        <v>0.41100001335144043</v>
+        <v>0.52569997310638428</v>
       </c>
       <c r="H1" s="1">
-        <v>0.40729999542236328</v>
+        <v>0.52560001611709595</v>
       </c>
       <c r="I1" s="1">
-        <v>0.40529999136924744</v>
+        <v>0.52679997682571411</v>
       </c>
       <c r="J1" s="1">
-        <v>0.40459999442100525</v>
+        <v>0.52679997682571411</v>
       </c>
       <c r="K1" s="1">
-        <v>0.40380001068115234</v>
+        <v>0.52609997987747192</v>
       </c>
       <c r="L1" s="1">
-        <v>0.40239998698234558</v>
+        <v>0.52560001611709595</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
-        <v>0.46369999647140503</v>
+        <v>0.51929998397827148</v>
       </c>
       <c r="C2" s="1">
-        <v>0.45860001444816589</v>
+        <v>0.51639997959136963</v>
       </c>
       <c r="D2" s="1">
-        <v>0.45089998841285706</v>
+        <v>0.51590001583099365</v>
       </c>
       <c r="E2" s="1">
-        <v>0.44490000605583191</v>
+        <v>0.51349997520446777</v>
       </c>
       <c r="F2" s="1">
-        <v>0.44539999961853027</v>
+        <v>0.51499998569488525</v>
       </c>
       <c r="G2" s="1">
-        <v>0.44769999384880066</v>
+        <v>0.51719999313354492</v>
       </c>
       <c r="H2" s="1">
-        <v>0.44359999895095825</v>
+        <v>0.51829999685287476</v>
       </c>
       <c r="I2" s="1">
-        <v>0.44190001487731934</v>
+        <v>0.51899999380111694</v>
       </c>
       <c r="J2" s="1">
-        <v>0.44119998812675476</v>
+        <v>0.51789999008178711</v>
       </c>
       <c r="K2" s="1">
-        <v>0.43999999761581421</v>
+        <v>0.51810002326965332</v>
       </c>
       <c r="L2" s="1">
-        <v>0.44010001420974731</v>
+        <v>0.5187000036239624</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>0.43700000643730164</v>
+        <v>0.49610000848770142</v>
       </c>
       <c r="C3" s="1">
-        <v>0.43630000948905945</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="1">
-        <v>0.42410001158714294</v>
+        <v>0.49729999899864197</v>
       </c>
       <c r="E3" s="1">
-        <v>0.42129999399185181</v>
+        <v>0.49149999022483826</v>
       </c>
       <c r="F3" s="1">
-        <v>0.42129999399185181</v>
+        <v>0.4885999858379364</v>
       </c>
       <c r="G3" s="1">
-        <v>0.42269998788833618</v>
+        <v>0.48579999804496765</v>
       </c>
       <c r="H3" s="1">
-        <v>0.42059999704360962</v>
+        <v>0.48559999465942383</v>
       </c>
       <c r="I3" s="1">
-        <v>0.41920000314712524</v>
+        <v>0.48769998550415039</v>
       </c>
       <c r="J3" s="1">
-        <v>0.41780000925064087</v>
+        <v>0.4885999858379364</v>
       </c>
       <c r="K3" s="1">
-        <v>0.41710001230239868</v>
+        <v>0.48769998550415039</v>
       </c>
       <c r="L3" s="1">
-        <v>0.41609999537467957</v>
+        <v>0.48910000920295715</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -9419,21 +9971,21 @@
       </c>
       <c r="B5" s="1">
         <f>B1</f>
-        <v>0.43610000610351563</v>
+        <v>0.52410000562667847</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="1">
         <f>B2</f>
-        <v>0.46369999647140503</v>
+        <v>0.51929998397827148</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
       </c>
       <c r="R5" s="1">
         <f>B3</f>
-        <v>0.43700000643730164</v>
+        <v>0.49610000848770142</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -9442,21 +9994,21 @@
       </c>
       <c r="B6" s="1">
         <f>C1</f>
-        <v>0.43309998512268066</v>
+        <v>0.52700001001358032</v>
       </c>
       <c r="I6" s="2">
         <v>3</v>
       </c>
       <c r="J6" s="1">
         <f>C2</f>
-        <v>0.45860001444816589</v>
+        <v>0.51639997959136963</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
       </c>
       <c r="R6" s="1">
         <f>C3</f>
-        <v>0.43630000948905945</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -9465,21 +10017,21 @@
       </c>
       <c r="B7" s="1">
         <f>D1</f>
-        <v>0.4260999858379364</v>
+        <v>0.52670001983642578</v>
       </c>
       <c r="I7" s="2">
         <v>6</v>
       </c>
       <c r="J7" s="1">
         <f>D2</f>
-        <v>0.45089998841285706</v>
+        <v>0.51590001583099365</v>
       </c>
       <c r="Q7" s="2">
         <v>6</v>
       </c>
       <c r="R7" s="1">
         <f>D3</f>
-        <v>0.42410001158714294</v>
+        <v>0.49729999899864197</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -9488,21 +10040,21 @@
       </c>
       <c r="B8" s="1">
         <f>E1</f>
-        <v>0.41639998555183411</v>
+        <v>0.52579998970031738</v>
       </c>
       <c r="I8" s="2">
         <v>9</v>
       </c>
       <c r="J8" s="1">
         <f>E2</f>
-        <v>0.44490000605583191</v>
+        <v>0.51349997520446777</v>
       </c>
       <c r="Q8" s="2">
         <v>9</v>
       </c>
       <c r="R8" s="1">
         <f>E3</f>
-        <v>0.42129999399185181</v>
+        <v>0.49149999022483826</v>
       </c>
       <c r="U8" s="8"/>
     </row>
@@ -9512,21 +10064,21 @@
       </c>
       <c r="B9" s="1">
         <f>F1</f>
-        <v>0.40900000929832458</v>
+        <v>0.52530002593994141</v>
       </c>
       <c r="I9" s="2">
         <v>12</v>
       </c>
       <c r="J9" s="1">
         <f>F2</f>
-        <v>0.44539999961853027</v>
+        <v>0.51499998569488525</v>
       </c>
       <c r="Q9" s="2">
         <v>12</v>
       </c>
       <c r="R9" s="1">
         <f>F3</f>
-        <v>0.42129999399185181</v>
+        <v>0.4885999858379364</v>
       </c>
       <c r="U9" s="8"/>
     </row>
@@ -9536,21 +10088,21 @@
       </c>
       <c r="B10" s="1">
         <f>G1</f>
-        <v>0.41100001335144043</v>
+        <v>0.52569997310638428</v>
       </c>
       <c r="I10" s="2">
         <v>15</v>
       </c>
       <c r="J10" s="1">
         <f>G2</f>
-        <v>0.44769999384880066</v>
+        <v>0.51719999313354492</v>
       </c>
       <c r="Q10" s="2">
         <v>15</v>
       </c>
       <c r="R10" s="1">
         <f>G3</f>
-        <v>0.42269998788833618</v>
+        <v>0.48579999804496765</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -9559,21 +10111,21 @@
       </c>
       <c r="B11" s="1">
         <f>H1</f>
-        <v>0.40729999542236328</v>
+        <v>0.52560001611709595</v>
       </c>
       <c r="I11" s="2">
         <v>18</v>
       </c>
       <c r="J11" s="1">
         <f>H2</f>
-        <v>0.44359999895095825</v>
+        <v>0.51829999685287476</v>
       </c>
       <c r="Q11" s="2">
         <v>18</v>
       </c>
       <c r="R11" s="1">
         <f>H3</f>
-        <v>0.42059999704360962</v>
+        <v>0.48559999465942383</v>
       </c>
       <c r="U11" s="8"/>
     </row>
@@ -9583,21 +10135,21 @@
       </c>
       <c r="B12" s="1">
         <f>I1</f>
-        <v>0.40529999136924744</v>
+        <v>0.52679997682571411</v>
       </c>
       <c r="I12" s="2">
         <v>21</v>
       </c>
       <c r="J12" s="1">
         <f>I2</f>
-        <v>0.44190001487731934</v>
+        <v>0.51899999380111694</v>
       </c>
       <c r="Q12" s="2">
         <v>21</v>
       </c>
       <c r="R12" s="1">
         <f>I3</f>
-        <v>0.41920000314712524</v>
+        <v>0.48769998550415039</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -9606,21 +10158,21 @@
       </c>
       <c r="B13" s="1">
         <f>J1</f>
-        <v>0.40459999442100525</v>
+        <v>0.52679997682571411</v>
       </c>
       <c r="I13" s="2">
         <v>24</v>
       </c>
       <c r="J13" s="1">
         <f>J2</f>
-        <v>0.44119998812675476</v>
+        <v>0.51789999008178711</v>
       </c>
       <c r="Q13" s="2">
         <v>24</v>
       </c>
       <c r="R13" s="1">
         <f>J3</f>
-        <v>0.41780000925064087</v>
+        <v>0.4885999858379364</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -9629,21 +10181,21 @@
       </c>
       <c r="B14" s="1">
         <f>K1</f>
-        <v>0.40380001068115234</v>
+        <v>0.52609997987747192</v>
       </c>
       <c r="I14" s="2">
         <v>27</v>
       </c>
       <c r="J14" s="1">
         <f>K2</f>
-        <v>0.43999999761581421</v>
+        <v>0.51810002326965332</v>
       </c>
       <c r="Q14" s="2">
         <v>27</v>
       </c>
       <c r="R14" s="1">
         <f>K3</f>
-        <v>0.41710001230239868</v>
+        <v>0.48769998550415039</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -9652,21 +10204,21 @@
       </c>
       <c r="B15" s="1">
         <f>L1</f>
-        <v>0.40239998698234558</v>
+        <v>0.52560001611709595</v>
       </c>
       <c r="I15" s="2">
         <v>30</v>
       </c>
       <c r="J15" s="1">
         <f>L2</f>
-        <v>0.44010001420974731</v>
+        <v>0.5187000036239624</v>
       </c>
       <c r="Q15" s="2">
         <v>30</v>
       </c>
       <c r="R15" s="1">
         <f>L3</f>
-        <v>0.41609999537467957</v>
+        <v>0.48910000920295715</v>
       </c>
     </row>
   </sheetData>
@@ -9679,141 +10231,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2">
-        <v>91153</v>
+        <v>91161</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>0.5593000054359436</v>
+        <v>0.53329998254776001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.56749999523162842</v>
+        <v>0.5559999942779541</v>
       </c>
       <c r="D4" s="1">
-        <v>0.57609999179840088</v>
+        <v>0.58660000562667847</v>
       </c>
       <c r="E4" s="1">
-        <v>0.58380001783370972</v>
+        <v>0.62199997901916504</v>
       </c>
       <c r="F4" s="1">
-        <v>0.59049999713897705</v>
+        <v>0.65119999647140503</v>
       </c>
       <c r="G4" s="1">
-        <v>0.59299999475479126</v>
+        <v>0.66939997673034668</v>
       </c>
       <c r="H4" s="1">
-        <v>0.5964999794960022</v>
+        <v>0.69010001420974731</v>
       </c>
       <c r="I4" s="1">
-        <v>0.60110002756118774</v>
+        <v>0.71170002222061157</v>
       </c>
       <c r="J4" s="1">
-        <v>0.60670000314712524</v>
+        <v>0.71899998188018799</v>
       </c>
       <c r="K4" s="1">
-        <v>0.61710000038146973</v>
+        <v>0.72780001163482666</v>
       </c>
       <c r="L4" s="1">
-        <v>0.62470000982284546</v>
+        <v>0.74040001630783081</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f>B6</f>
-        <v>0.5593000054359436</v>
+        <f>B7</f>
+        <v>1.1599987745285034E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.52410000562667847</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.52700001001358032</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.52670001983642578</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.52579998970031738</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.52530002593994141</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.52569997310638428</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.52560001611709595</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.52609997987747192</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.52560001611709595</v>
+      </c>
       <c r="N5" s="2">
         <v>3</v>
       </c>
       <c r="O5" s="2">
-        <f>C6</f>
-        <v>0.56749999523162842</v>
+        <f>C7</f>
+        <v>3.4299999475479126E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <f>B4</f>
-        <v>0.5593000054359436</v>
-      </c>
-      <c r="C6" s="2">
-        <f>C4</f>
-        <v>0.56749999523162842</v>
-      </c>
-      <c r="D6" s="2">
-        <f>D4</f>
-        <v>0.57609999179840088</v>
-      </c>
-      <c r="E6" s="2">
-        <f>E4</f>
-        <v>0.58380001783370972</v>
-      </c>
-      <c r="F6" s="2">
-        <f>F4</f>
-        <v>0.59049999713897705</v>
-      </c>
-      <c r="G6" s="2">
-        <f>G4</f>
-        <v>0.59299999475479126</v>
-      </c>
-      <c r="H6" s="2">
-        <f>H4</f>
-        <v>0.5964999794960022</v>
-      </c>
-      <c r="I6" s="2">
-        <f>I4</f>
-        <v>0.60110002756118774</v>
-      </c>
-      <c r="J6" s="2">
-        <f>J4</f>
-        <v>0.60670000314712524</v>
-      </c>
-      <c r="K6" s="2">
-        <f>K4</f>
-        <v>0.61710000038146973</v>
-      </c>
-      <c r="L6" s="2">
-        <f>L4</f>
-        <v>0.62470000982284546</v>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.51929998397827148</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.51639997959136963</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.51590001583099365</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.51349997520446777</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.51499998569488525</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.51719999313354492</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.51829999685287476</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.51899999380111694</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.51789999008178711</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.51810002326965332</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.5187000036239624</v>
       </c>
       <c r="N6" s="2">
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <f>D6</f>
-        <v>0.57609999179840088</v>
+        <f>D7</f>
+        <v>6.529998779296875E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B4-(AVERAGE(B5:B6))</f>
+        <v>1.1599987745285034E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:L7" si="0">C4-(AVERAGE(C5:C6))</f>
+        <v>3.4299999475479126E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.529998779296875E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10234999656677246</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1310499906539917</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14794999361038208</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16815000772476196</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18880003690719604</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19664999842643738</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20570001006126404</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21825000643730164</v>
+      </c>
       <c r="N7" s="2">
         <v>9</v>
       </c>
       <c r="O7" s="2">
-        <f>E6</f>
-        <v>0.58380001783370972</v>
+        <f>E7</f>
+        <v>0.10234999656677246</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -9821,8 +10446,8 @@
         <v>12</v>
       </c>
       <c r="O8" s="2">
-        <f>F6</f>
-        <v>0.59049999713897705</v>
+        <f>F7</f>
+        <v>0.1310499906539917</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -9830,8 +10455,8 @@
         <v>15</v>
       </c>
       <c r="O9" s="2">
-        <f>G6</f>
-        <v>0.59299999475479126</v>
+        <f>G7</f>
+        <v>0.14794999361038208</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -9839,8 +10464,8 @@
         <v>18</v>
       </c>
       <c r="O10" s="2">
-        <f>H6</f>
-        <v>0.5964999794960022</v>
+        <f>H7</f>
+        <v>0.16815000772476196</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -9848,8 +10473,8 @@
         <v>21</v>
       </c>
       <c r="O11" s="2">
-        <f>I6</f>
-        <v>0.60110002756118774</v>
+        <f>I7</f>
+        <v>0.18880003690719604</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -9857,8 +10482,8 @@
         <v>24</v>
       </c>
       <c r="O12" s="2">
-        <f>J6</f>
-        <v>0.60670000314712524</v>
+        <f>J7</f>
+        <v>0.19664999842643738</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -9866,8 +10491,8 @@
         <v>27</v>
       </c>
       <c r="O13" s="2">
-        <f>K6</f>
-        <v>0.61710000038146973</v>
+        <f>K7</f>
+        <v>0.20570001006126404</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9875,130 +10500,199 @@
         <v>30</v>
       </c>
       <c r="O14" s="2">
-        <f>L6</f>
-        <v>0.62470000982284546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+        <f>L7</f>
+        <v>0.21825000643730164</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>0.5339999794960022</v>
+        <v>0.62440001964569092</v>
       </c>
       <c r="C19" s="1">
-        <v>0.55000001192092896</v>
+        <v>0.66280001401901245</v>
       </c>
       <c r="D19" s="1">
-        <v>0.55860000848770142</v>
+        <v>0.66649997234344482</v>
       </c>
       <c r="E19" s="1">
-        <v>0.56760001182556152</v>
+        <v>0.67699998617172241</v>
       </c>
       <c r="F19" s="1">
-        <v>0.57359999418258667</v>
+        <v>0.68879997730255127</v>
       </c>
       <c r="G19" s="1">
-        <v>0.580299973487854</v>
+        <v>0.69950002431869507</v>
       </c>
       <c r="H19" s="1">
-        <v>0.58719998598098755</v>
+        <v>0.70810002088546753</v>
       </c>
       <c r="I19" s="1">
-        <v>0.59789997339248657</v>
+        <v>0.71359997987747192</v>
       </c>
       <c r="J19" s="1">
-        <v>0.60600000619888306</v>
+        <v>0.71420001983642578</v>
       </c>
       <c r="K19" s="1">
-        <v>0.61400002241134644</v>
+        <v>0.71749997138977051</v>
       </c>
       <c r="L19" s="1">
-        <v>0.62080001831054688</v>
+        <v>0.73199999332427979</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f>B21</f>
-        <v>0.5339999794960022</v>
+        <f>B22</f>
+        <v>0.10270002484321594</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.52410000562667847</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.52700001001358032</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.52670001983642578</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.52579998970031738</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.52530002593994141</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.52569997310638428</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.52560001611709595</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.52609997987747192</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.52560001611709595</v>
+      </c>
       <c r="N20" s="2">
         <v>3</v>
       </c>
       <c r="O20" s="2">
-        <f>C21</f>
-        <v>0.55000001192092896</v>
+        <f>C22</f>
+        <v>0.14110001921653748</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <f>B19</f>
-        <v>0.5339999794960022</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" ref="C21:L21" si="0">C19</f>
-        <v>0.55000001192092896</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55860000848770142</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.56760001182556152</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57359999418258667</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.580299973487854</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58719998598098755</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.59789997339248657</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.60600000619888306</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.61400002241134644</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.62080001831054688</v>
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.51929998397827148</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.51639997959136963</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.51590001583099365</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.51349997520446777</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.51499998569488525</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.51719999313354492</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.51829999685287476</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.51899999380111694</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.51789999008178711</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.51810002326965332</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.5187000036239624</v>
       </c>
       <c r="N21" s="2">
         <v>6</v>
       </c>
       <c r="O21" s="2">
-        <f>D21</f>
-        <v>0.55860000848770142</v>
+        <f>D22</f>
+        <v>0.14519995450973511</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <f>B19-(AVERAGE(B20:B21))</f>
+        <v>0.10270002484321594</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:L22" si="1">C19-(AVERAGE(C20:C21))</f>
+        <v>0.14110001921653748</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14519995450973511</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15735000371932983</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16864997148513794</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17805004119873047</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18615001440048218</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1906999945640564</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19185003638267517</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19539996981620789</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20984998345375061</v>
+      </c>
       <c r="N22" s="2">
         <v>9</v>
       </c>
       <c r="O22" s="2">
-        <f>E21</f>
-        <v>0.56760001182556152</v>
+        <f>E22</f>
+        <v>0.15735000371932983</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -10006,8 +10700,8 @@
         <v>12</v>
       </c>
       <c r="O23" s="2">
-        <f>F21</f>
-        <v>0.57359999418258667</v>
+        <f>F22</f>
+        <v>0.16864997148513794</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10015,8 +10709,8 @@
         <v>15</v>
       </c>
       <c r="O24" s="2">
-        <f>G21</f>
-        <v>0.580299973487854</v>
+        <f>G22</f>
+        <v>0.17805004119873047</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10024,8 +10718,8 @@
         <v>18</v>
       </c>
       <c r="O25" s="2">
-        <f>H21</f>
-        <v>0.58719998598098755</v>
+        <f>H22</f>
+        <v>0.18615001440048218</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10033,8 +10727,8 @@
         <v>21</v>
       </c>
       <c r="O26" s="2">
-        <f>I21</f>
-        <v>0.59789997339248657</v>
+        <f>I22</f>
+        <v>0.1906999945640564</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -10042,8 +10736,8 @@
         <v>24</v>
       </c>
       <c r="O27" s="2">
-        <f>J21</f>
-        <v>0.60600000619888306</v>
+        <f>J22</f>
+        <v>0.19185003638267517</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10051,8 +10745,8 @@
         <v>27</v>
       </c>
       <c r="O28" s="2">
-        <f>K21</f>
-        <v>0.61400002241134644</v>
+        <f>K22</f>
+        <v>0.19539996981620789</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -10060,127 +10754,199 @@
         <v>30</v>
       </c>
       <c r="O29" s="2">
-        <f>L21</f>
-        <v>0.62080001831054688</v>
+        <f>L22</f>
+        <v>0.20984998345375061</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>0.49430000782012939</v>
+        <v>0.67979997396469116</v>
       </c>
       <c r="C35" s="1">
-        <v>0.51249998807907104</v>
+        <v>0.70099997520446777</v>
       </c>
       <c r="D35" s="1">
-        <v>0.5242999792098999</v>
+        <v>0.70840001106262207</v>
       </c>
       <c r="E35" s="1">
-        <v>0.53350001573562622</v>
+        <v>0.71369999647140503</v>
       </c>
       <c r="F35" s="1">
-        <v>0.54030001163482666</v>
+        <v>0.72619998455047607</v>
       </c>
       <c r="G35" s="1">
-        <v>0.54610002040863037</v>
+        <v>0.73860001564025879</v>
       </c>
       <c r="H35" s="1">
-        <v>0.55159997940063477</v>
+        <v>0.75040000677108765</v>
       </c>
       <c r="I35" s="1">
-        <v>0.55699998140335083</v>
+        <v>0.7631000280380249</v>
       </c>
       <c r="J35" s="1">
-        <v>0.56879997253417969</v>
+        <v>0.76759999990463257</v>
       </c>
       <c r="K35" s="1">
-        <v>0.57539999485015869</v>
+        <v>0.77640002965927124</v>
       </c>
       <c r="L35" s="1">
-        <v>0.5810999870300293</v>
+        <v>0.79420000314712524</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="O35" s="2">
-        <f>B37</f>
-        <v>0.49430000782012939</v>
+      <c r="O35" s="11">
+        <f>B38</f>
+        <v>0.15809997916221619</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.52410000562667847</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.52700001001358032</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.52670001983642578</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.52579998970031738</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.52530002593994141</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.52569997310638428</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.52560001611709595</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.52609997987747192</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.52560001611709595</v>
+      </c>
       <c r="N36" s="2">
         <v>3</v>
       </c>
       <c r="O36" s="2">
-        <f>C37</f>
-        <v>0.51249998807907104</v>
+        <f>C38</f>
+        <v>0.1792999804019928</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
-        <f>B35</f>
-        <v>0.49430000782012939</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" ref="C37:L37" si="1">C35</f>
-        <v>0.51249998807907104</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.5242999792098999</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.53350001573562622</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.54030001163482666</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.54610002040863037</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.55159997940063477</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.55699998140335083</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.56879997253417969</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.57539999485015869</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.5810999870300293</v>
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.51929998397827148</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.51639997959136963</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.51590001583099365</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.51349997520446777</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.51499998569488525</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.51719999313354492</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.51829999685287476</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.51899999380111694</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.51789999008178711</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.51810002326965332</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.5187000036239624</v>
       </c>
       <c r="N37" s="2">
         <v>6</v>
       </c>
       <c r="O37" s="2">
-        <f>D37</f>
-        <v>0.5242999792098999</v>
+        <f>D38</f>
+        <v>0.18709999322891235</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="11">
+        <f>B35-(AVERAGE(B36:B37))</f>
+        <v>0.15809997916221619</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" ref="C38:L38" si="2">C35-(AVERAGE(C36:C37))</f>
+        <v>0.1792999804019928</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18709999322891235</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19405001401901245</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20604997873306274</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21715003252029419</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22845000028610229</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24020004272460938</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24525001645088196</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25430002808570862</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27204999327659607</v>
+      </c>
       <c r="N38" s="2">
         <v>9</v>
       </c>
       <c r="O38" s="2">
-        <f>E37</f>
-        <v>0.53350001573562622</v>
+        <f>E38</f>
+        <v>0.19405001401901245</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -10188,8 +10954,8 @@
         <v>12</v>
       </c>
       <c r="O39" s="2">
-        <f>F37</f>
-        <v>0.54030001163482666</v>
+        <f>F38</f>
+        <v>0.20604997873306274</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -10197,8 +10963,8 @@
         <v>15</v>
       </c>
       <c r="O40" s="2">
-        <f>G37</f>
-        <v>0.54610002040863037</v>
+        <f>G38</f>
+        <v>0.21715003252029419</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -10206,8 +10972,8 @@
         <v>18</v>
       </c>
       <c r="O41" s="2">
-        <f>H37</f>
-        <v>0.55159997940063477</v>
+        <f>H38</f>
+        <v>0.22845000028610229</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -10215,8 +10981,8 @@
         <v>21</v>
       </c>
       <c r="O42" s="2">
-        <f>I37</f>
-        <v>0.55699998140335083</v>
+        <f>I38</f>
+        <v>0.24020004272460938</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -10225,8 +10991,8 @@
         <v>24</v>
       </c>
       <c r="O43" s="2">
-        <f>J37</f>
-        <v>0.56879997253417969</v>
+        <f>J38</f>
+        <v>0.24525001645088196</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -10234,8 +11000,8 @@
         <v>27</v>
       </c>
       <c r="O44" s="2">
-        <f>K37</f>
-        <v>0.57539999485015869</v>
+        <f>K38</f>
+        <v>0.25430002808570862</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -10243,127 +11009,199 @@
         <v>30</v>
       </c>
       <c r="O45" s="2">
-        <f>L37</f>
-        <v>0.5810999870300293</v>
+        <f>L38</f>
+        <v>0.27204999327659607</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1">
-        <v>0.55250000953674316</v>
+        <v>0.7247999906539917</v>
       </c>
       <c r="C51" s="1">
-        <v>0.5680999755859375</v>
+        <v>0.75410002470016479</v>
       </c>
       <c r="D51" s="1">
-        <v>0.57450002431869507</v>
+        <v>0.77880001068115234</v>
       </c>
       <c r="E51" s="1">
-        <v>0.58160001039505005</v>
+        <v>0.79549998044967651</v>
       </c>
       <c r="F51" s="1">
-        <v>0.59039998054504395</v>
+        <v>0.81859999895095825</v>
       </c>
       <c r="G51" s="1">
-        <v>0.59710001945495605</v>
+        <v>0.84060001373291016</v>
       </c>
       <c r="H51" s="1">
-        <v>0.61040002107620239</v>
+        <v>0.8629000186920166</v>
       </c>
       <c r="I51" s="1">
-        <v>0.61900001764297485</v>
+        <v>0.88609999418258667</v>
       </c>
       <c r="J51" s="1">
-        <v>0.62809997797012329</v>
+        <v>0.90310001373291016</v>
       </c>
       <c r="K51" s="1">
-        <v>0.63639998435974121</v>
+        <v>0.92140001058578491</v>
       </c>
       <c r="L51" s="1">
-        <v>0.64259999990463257</v>
+        <v>0.94889998435974121</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <f>B53</f>
-        <v>0.55250000953674316</v>
+        <f>B54</f>
+        <v>0.20309999585151672</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.52410000562667847</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.52700001001358032</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.52670001983642578</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.52579998970031738</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.52530002593994141</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.52569997310638428</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.52560001611709595</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.52609997987747192</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.52560001611709595</v>
+      </c>
       <c r="N52" s="2">
         <v>3</v>
       </c>
       <c r="O52" s="2">
-        <f>C53</f>
-        <v>0.5680999755859375</v>
+        <f>C54</f>
+        <v>0.23240002989768982</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <f>B51</f>
-        <v>0.55250000953674316</v>
-      </c>
-      <c r="C53" s="2">
-        <f t="shared" ref="C53:L53" si="2">C51</f>
-        <v>0.5680999755859375</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.57450002431869507</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.58160001039505005</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.59039998054504395</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.59710001945495605</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.61040002107620239</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.61900001764297485</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.62809997797012329</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.63639998435974121</v>
-      </c>
-      <c r="L53" s="2">
-        <f t="shared" si="2"/>
-        <v>0.64259999990463257</v>
+      <c r="A53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.51929998397827148</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.51639997959136963</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.51590001583099365</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.51349997520446777</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.51499998569488525</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.51719999313354492</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.51829999685287476</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.51899999380111694</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.51789999008178711</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.51810002326965332</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.5187000036239624</v>
       </c>
       <c r="N53" s="2">
         <v>6</v>
       </c>
       <c r="O53" s="2">
-        <f>D53</f>
-        <v>0.57450002431869507</v>
+        <f>D54</f>
+        <v>0.25749999284744263</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <f>B51-(AVERAGE(B52:B53))</f>
+        <v>0.20309999585151672</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" ref="C54:K54" si="3">C51-(AVERAGE(C52:C53))</f>
+        <v>0.23240002989768982</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25749999284744263</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27584999799728394</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29844999313354492</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31915003061294556</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.34095001220703125</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36320000886917114</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38075003027915955</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39930000901222229</v>
+      </c>
+      <c r="L54" s="2">
+        <f>L51-(AVERAGE(L52:L53))</f>
+        <v>0.42674997448921204</v>
+      </c>
       <c r="N54" s="2">
         <v>9</v>
       </c>
       <c r="O54" s="2">
-        <f>E53</f>
-        <v>0.58160001039505005</v>
+        <f>E54</f>
+        <v>0.27584999799728394</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -10371,8 +11209,8 @@
         <v>12</v>
       </c>
       <c r="O55" s="2">
-        <f>F53</f>
-        <v>0.59039998054504395</v>
+        <f>F54</f>
+        <v>0.29844999313354492</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -10380,8 +11218,8 @@
         <v>15</v>
       </c>
       <c r="O56" s="2">
-        <f>G53</f>
-        <v>0.59710001945495605</v>
+        <f>G54</f>
+        <v>0.31915003061294556</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -10389,8 +11227,8 @@
         <v>18</v>
       </c>
       <c r="O57" s="2">
-        <f>H53</f>
-        <v>0.61040002107620239</v>
+        <f>H54</f>
+        <v>0.34095001220703125</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -10398,8 +11236,8 @@
         <v>21</v>
       </c>
       <c r="O58" s="2">
-        <f>I53</f>
-        <v>0.61900001764297485</v>
+        <f>I54</f>
+        <v>0.36320000886917114</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -10407,8 +11245,8 @@
         <v>24</v>
       </c>
       <c r="O59" s="2">
-        <f>J53</f>
-        <v>0.62809997797012329</v>
+        <f>J54</f>
+        <v>0.38075003027915955</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -10416,8 +11254,8 @@
         <v>27</v>
       </c>
       <c r="O60" s="2">
-        <f>K53</f>
-        <v>0.63639998435974121</v>
+        <f>K54</f>
+        <v>0.39930000901222229</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -10425,127 +11263,199 @@
         <v>30</v>
       </c>
       <c r="O61" s="2">
-        <f>L53</f>
-        <v>0.64259999990463257</v>
+        <f>L54</f>
+        <v>0.42674997448921204</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68" s="1">
-        <v>0.51889997720718384</v>
+        <v>0.5055999755859375</v>
       </c>
       <c r="C68" s="1">
-        <v>0.53310000896453857</v>
+        <v>0.52090001106262207</v>
       </c>
       <c r="D68" s="1">
-        <v>0.54589998722076416</v>
+        <v>0.53210002183914185</v>
       </c>
       <c r="E68" s="1">
-        <v>0.55809998512268066</v>
+        <v>0.53920000791549683</v>
       </c>
       <c r="F68" s="1">
-        <v>0.56709998846054077</v>
+        <v>0.55190002918243408</v>
       </c>
       <c r="G68" s="1">
-        <v>0.57639998197555542</v>
+        <v>0.56410002708435059</v>
       </c>
       <c r="H68" s="1">
-        <v>0.59280002117156982</v>
+        <v>0.5745999813079834</v>
       </c>
       <c r="I68" s="1">
-        <v>0.60430002212524414</v>
+        <v>0.5853000283241272</v>
       </c>
       <c r="J68" s="1">
-        <v>0.61470001935958862</v>
+        <v>0.59600001573562622</v>
       </c>
       <c r="K68" s="1">
-        <v>0.62529999017715454</v>
+        <v>0.60199999809265137</v>
       </c>
       <c r="L68" s="1">
-        <v>0.63550001382827759</v>
+        <v>0.61769998073577881</v>
       </c>
       <c r="N68" s="2">
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <f>B70</f>
-        <v>0.51889997720718384</v>
+        <f>B71</f>
+        <v>-1.6100019216537476E-2</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.52410000562667847</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.52700001001358032</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.52670001983642578</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.52579998970031738</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.52530002593994141</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.52569997310638428</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.52560001611709595</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.52609997987747192</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.52560001611709595</v>
+      </c>
       <c r="N69" s="2">
         <v>3</v>
       </c>
       <c r="O69" s="2">
-        <f>C70</f>
-        <v>0.53310000896453857</v>
+        <f>C71</f>
+        <v>-7.9998373985290527E-4</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2">
-        <f>B68</f>
-        <v>0.51889997720718384</v>
-      </c>
-      <c r="C70" s="2">
-        <f t="shared" ref="C70:L70" si="3">C68</f>
-        <v>0.53310000896453857</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="3"/>
-        <v>0.54589998722076416</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="3"/>
-        <v>0.55809998512268066</v>
-      </c>
-      <c r="F70" s="2">
-        <f t="shared" si="3"/>
-        <v>0.56709998846054077</v>
-      </c>
-      <c r="G70" s="2">
-        <f t="shared" si="3"/>
-        <v>0.57639998197555542</v>
-      </c>
-      <c r="H70" s="2">
-        <f t="shared" si="3"/>
-        <v>0.59280002117156982</v>
-      </c>
-      <c r="I70" s="2">
-        <f t="shared" si="3"/>
-        <v>0.60430002212524414</v>
-      </c>
-      <c r="J70" s="2">
-        <f t="shared" si="3"/>
-        <v>0.61470001935958862</v>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" si="3"/>
-        <v>0.62529999017715454</v>
-      </c>
-      <c r="L70" s="2">
-        <f t="shared" si="3"/>
-        <v>0.63550001382827759</v>
+      <c r="A70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.51929998397827148</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.51639997959136963</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.51590001583099365</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.51349997520446777</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.51499998569488525</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.51719999313354492</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.51829999685287476</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.51899999380111694</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.51789999008178711</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.51810002326965332</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.5187000036239624</v>
       </c>
       <c r="N70" s="2">
         <v>6</v>
       </c>
       <c r="O70" s="2">
-        <f>D70</f>
-        <v>0.54589998722076416</v>
+        <f>D71</f>
+        <v>1.0800004005432129E-2</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <f>B68-(AVERAGE(B69:B70))</f>
+        <v>-1.6100019216537476E-2</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" ref="C71:L71" si="4">C68-(AVERAGE(C69:C70))</f>
+        <v>-7.9998373985290527E-4</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0800004005432129E-2</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9550025463104248E-2</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="4"/>
+        <v>3.1750023365020752E-2</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2650043964385986E-2</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="4"/>
+        <v>5.2649974822998047E-2</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="4"/>
+        <v>6.240004301071167E-2</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="4"/>
+        <v>7.365003228187561E-2</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="4"/>
+        <v>7.9899996519088745E-2</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="4"/>
+        <v>9.5549970865249634E-2</v>
+      </c>
       <c r="N71" s="2">
         <v>9</v>
       </c>
       <c r="O71" s="2">
-        <f>E70</f>
-        <v>0.55809998512268066</v>
+        <f>E71</f>
+        <v>1.9550025463104248E-2</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -10553,8 +11463,8 @@
         <v>12</v>
       </c>
       <c r="O72" s="2">
-        <f>F70</f>
-        <v>0.56709998846054077</v>
+        <f>F71</f>
+        <v>3.1750023365020752E-2</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -10562,8 +11472,8 @@
         <v>15</v>
       </c>
       <c r="O73" s="2">
-        <f>G70</f>
-        <v>0.57639998197555542</v>
+        <f>G71</f>
+        <v>4.2650043964385986E-2</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -10571,8 +11481,8 @@
         <v>18</v>
       </c>
       <c r="O74" s="2">
-        <f>H70</f>
-        <v>0.59280002117156982</v>
+        <f>H71</f>
+        <v>5.2649974822998047E-2</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -10580,8 +11490,8 @@
         <v>21</v>
       </c>
       <c r="O75" s="2">
-        <f>I70</f>
-        <v>0.60430002212524414</v>
+        <f>I71</f>
+        <v>6.240004301071167E-2</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -10589,8 +11499,8 @@
         <v>24</v>
       </c>
       <c r="O76" s="2">
-        <f>J70</f>
-        <v>0.61470001935958862</v>
+        <f>J71</f>
+        <v>7.365003228187561E-2</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -10598,8 +11508,8 @@
         <v>27</v>
       </c>
       <c r="O77" s="2">
-        <f>K70</f>
-        <v>0.62529999017715454</v>
+        <f>K71</f>
+        <v>7.9899996519088745E-2</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -10607,127 +11517,199 @@
         <v>30</v>
       </c>
       <c r="O78" s="2">
-        <f>L70</f>
-        <v>0.63550001382827759</v>
+        <f>L71</f>
+        <v>9.5549970865249634E-2</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B85" s="1">
-        <v>0.53850001096725464</v>
+        <v>0.5031999945640564</v>
       </c>
       <c r="C85" s="1">
-        <v>0.54659998416900635</v>
+        <v>0.52160000801086426</v>
       </c>
       <c r="D85" s="1">
-        <v>0.55210000276565552</v>
+        <v>0.52640002965927124</v>
       </c>
       <c r="E85" s="1">
-        <v>0.55699998140335083</v>
+        <v>0.53189998865127563</v>
       </c>
       <c r="F85" s="1">
-        <v>0.56279999017715454</v>
+        <v>0.54790002107620239</v>
       </c>
       <c r="G85" s="1">
-        <v>0.56669998168945313</v>
+        <v>0.56160002946853638</v>
       </c>
       <c r="H85" s="1">
-        <v>0.57400000095367432</v>
+        <v>0.57529997825622559</v>
       </c>
       <c r="I85" s="1">
-        <v>0.58270001411437988</v>
+        <v>0.58799999952316284</v>
       </c>
       <c r="J85" s="1">
-        <v>0.58890002965927124</v>
+        <v>0.59710001945495605</v>
       </c>
       <c r="K85" s="1">
-        <v>0.59640002250671387</v>
+        <v>0.60229998826980591</v>
       </c>
       <c r="L85" s="1">
-        <v>0.60409998893737793</v>
+        <v>0.61460000276565552</v>
       </c>
       <c r="N85" s="2">
         <v>0</v>
       </c>
       <c r="O85" s="2">
-        <f>B87</f>
-        <v>0.53850001096725464</v>
+        <f>B88</f>
+        <v>-1.8500000238418579E-2</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.52410000562667847</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.52700001001358032</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.52670001983642578</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.52579998970031738</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.52530002593994141</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.52569997310638428</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.52560001611709595</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.52679997682571411</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.52609997987747192</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.52560001611709595</v>
+      </c>
       <c r="N86" s="2">
         <v>3</v>
       </c>
       <c r="O86" s="2">
-        <f>C87</f>
-        <v>0.54659998416900635</v>
+        <f>C88</f>
+        <v>-9.9986791610717773E-5</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="2">
-        <f>B85</f>
-        <v>0.53850001096725464</v>
-      </c>
-      <c r="C87" s="2">
-        <f t="shared" ref="C87:L87" si="4">C85</f>
-        <v>0.54659998416900635</v>
-      </c>
-      <c r="D87" s="2">
-        <f t="shared" si="4"/>
-        <v>0.55210000276565552</v>
-      </c>
-      <c r="E87" s="2">
-        <f t="shared" si="4"/>
-        <v>0.55699998140335083</v>
-      </c>
-      <c r="F87" s="2">
-        <f t="shared" si="4"/>
-        <v>0.56279999017715454</v>
-      </c>
-      <c r="G87" s="2">
-        <f t="shared" si="4"/>
-        <v>0.56669998168945313</v>
-      </c>
-      <c r="H87" s="2">
-        <f t="shared" si="4"/>
-        <v>0.57400000095367432</v>
-      </c>
-      <c r="I87" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58270001411437988</v>
-      </c>
-      <c r="J87" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58890002965927124</v>
-      </c>
-      <c r="K87" s="2">
-        <f t="shared" si="4"/>
-        <v>0.59640002250671387</v>
-      </c>
-      <c r="L87" s="2">
-        <f t="shared" si="4"/>
-        <v>0.60409998893737793</v>
+      <c r="A87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.51929998397827148</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.51639997959136963</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.51590001583099365</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.51349997520446777</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.51499998569488525</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.51719999313354492</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.51829999685287476</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.51899999380111694</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.51789999008178711</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.51810002326965332</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.5187000036239624</v>
       </c>
       <c r="N87" s="2">
         <v>6</v>
       </c>
       <c r="O87" s="2">
-        <f>D87</f>
-        <v>0.55210000276565552</v>
+        <f>D88</f>
+        <v>5.1000118255615234E-3</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2">
+        <f>B85-(AVERAGE(B86:B87))</f>
+        <v>-1.8500000238418579E-2</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" ref="C88:L88" si="5">C85-(AVERAGE(C86:C87))</f>
+        <v>-9.9986791610717773E-5</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="5"/>
+        <v>5.1000118255615234E-3</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2250006198883057E-2</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="5"/>
+        <v>2.7750015258789063E-2</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="5"/>
+        <v>4.0150046348571777E-2</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="5"/>
+        <v>5.3349971771240234E-2</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="5"/>
+        <v>6.5100014209747314E-2</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="5"/>
+        <v>7.4750036001205444E-2</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="5"/>
+        <v>8.0199986696243286E-2</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="5"/>
+        <v>9.2449992895126343E-2</v>
+      </c>
       <c r="N88" s="2">
         <v>9</v>
       </c>
       <c r="O88" s="2">
-        <f>E87</f>
-        <v>0.55699998140335083</v>
+        <f>E88</f>
+        <v>1.2250006198883057E-2</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -10735,8 +11717,8 @@
         <v>12</v>
       </c>
       <c r="O89" s="2">
-        <f>F87</f>
-        <v>0.56279999017715454</v>
+        <f>F88</f>
+        <v>2.7750015258789063E-2</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -10744,8 +11726,8 @@
         <v>15</v>
       </c>
       <c r="O90" s="2">
-        <f>G87</f>
-        <v>0.56669998168945313</v>
+        <f>G88</f>
+        <v>4.0150046348571777E-2</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -10753,8 +11735,8 @@
         <v>18</v>
       </c>
       <c r="O91" s="2">
-        <f>H87</f>
-        <v>0.57400000095367432</v>
+        <f>H88</f>
+        <v>5.3349971771240234E-2</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -10762,8 +11744,8 @@
         <v>21</v>
       </c>
       <c r="O92" s="2">
-        <f>I87</f>
-        <v>0.58270001411437988</v>
+        <f>I88</f>
+        <v>6.5100014209747314E-2</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -10771,8 +11753,8 @@
         <v>24</v>
       </c>
       <c r="O93" s="2">
-        <f>J87</f>
-        <v>0.58890002965927124</v>
+        <f>J88</f>
+        <v>7.4750036001205444E-2</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -10780,8 +11762,8 @@
         <v>27</v>
       </c>
       <c r="O94" s="2">
-        <f>K87</f>
-        <v>0.59640002250671387</v>
+        <f>K88</f>
+        <v>8.0199986696243286E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -10789,8 +11771,8 @@
         <v>30</v>
       </c>
       <c r="O95" s="2">
-        <f>L87</f>
-        <v>0.60409998893737793</v>
+        <f>L88</f>
+        <v>9.2449992895126343E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10806,7 +11788,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10858,193 +11840,193 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>91265</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>12</v>
+      <c r="A3" s="10">
+        <v>91266</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E3" s="1">
         <v>1E-4</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F8" si="0">D3-E3</f>
-        <v>1.9E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="G3" s="1">
-        <v>6.1699999999999998E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H8" si="1">F3/G3</f>
-        <v>3.0794165316045383E-2</v>
+        <v>0.11348684210526315</v>
       </c>
       <c r="I3" s="6">
-        <v>78.789893617021292</v>
+        <v>84.010659560293149</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J8" si="2">(H3*60*50000*100)/(1000*50*0.6*I3)</f>
-        <v>3.9083902645849999</v>
+        <v>13.508624107850913</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.7000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E4" s="1">
         <v>1E-4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>2.6000000000000003E-3</v>
+        <v>2.9000000000000002E-3</v>
       </c>
       <c r="G4" s="1">
-        <v>6.1699999999999998E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>4.2139384116693684E-2</v>
+        <v>4.7697368421052634E-2</v>
       </c>
       <c r="I4" s="6">
-        <v>78.789893617021292</v>
+        <v>84.010659560293149</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="2"/>
-        <v>5.34832351995842</v>
+        <v>5.6775376685170498</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.7000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="E5" s="1">
         <v>1E-4</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>2.6000000000000003E-3</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>6.1699999999999998E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>4.2139384116693684E-2</v>
+        <v>5.5921052631578955E-2</v>
       </c>
       <c r="I5" s="6">
-        <v>78.789893617021292</v>
+        <v>84.010659560293149</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>5.34832351995842</v>
+        <v>6.656423473433783</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="9">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>3.0000000000000001E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="E6" s="1">
         <v>1E-4</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>2.9000000000000002E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="G6" s="1">
-        <v>6.1699999999999998E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>4.7001620745542955E-2</v>
+        <v>0.11677631578947367</v>
       </c>
       <c r="I6" s="6">
-        <v>78.789893617021292</v>
+        <v>84.010659560293149</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="2"/>
-        <v>5.9654377722613159</v>
+        <v>13.900178429817602</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="9">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>3.8999999999999998E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1E-4</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>3.8E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>6.1699999999999998E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>6.1588330632090765E-2</v>
+        <v>5.7565789473684209E-2</v>
       </c>
       <c r="I7" s="6">
-        <v>78.789893617021292</v>
+        <v>84.010659560293149</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="2"/>
-        <v>7.8167805291699999</v>
+        <v>6.8522006344171293</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="9">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>2.0999999999999999E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="E8" s="1">
         <v>1E-4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>3.6000000000000003E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>6.1699999999999998E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>3.2414910858995137E-2</v>
+        <v>5.9210526315789477E-2</v>
       </c>
       <c r="I8" s="6">
-        <v>78.789893617021292</v>
+        <v>84.010659560293149</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="2"/>
-        <v>4.114095015352631</v>
+        <v>7.0479777954004748</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -11053,6 +12035,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
